--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2787.069315291607</v>
+        <v>2924.947266964179</v>
       </c>
       <c r="AB2" t="n">
-        <v>3813.391194002527</v>
+        <v>4002.041890226881</v>
       </c>
       <c r="AC2" t="n">
-        <v>3449.446490574938</v>
+        <v>3620.092629124547</v>
       </c>
       <c r="AD2" t="n">
-        <v>2787069.315291607</v>
+        <v>2924947.266964179</v>
       </c>
       <c r="AE2" t="n">
-        <v>3813391.194002527</v>
+        <v>4002041.890226881</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.978494841368934e-07</v>
+        <v>1.438564092026657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.45625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3449446.490574938</v>
+        <v>3620092.629124547</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.4072865474052</v>
+        <v>1010.388977565253</v>
       </c>
       <c r="AB3" t="n">
-        <v>1288.074981412464</v>
+        <v>1382.458774320508</v>
       </c>
       <c r="AC3" t="n">
-        <v>1165.142913011049</v>
+        <v>1250.518849192434</v>
       </c>
       <c r="AD3" t="n">
-        <v>941407.2865474052</v>
+        <v>1010388.977565253</v>
       </c>
       <c r="AE3" t="n">
-        <v>1288074.981412464</v>
+        <v>1382458.774320508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.870530129474159e-06</v>
+        <v>2.696676723386811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.24791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1165142.913011049</v>
+        <v>1250518.849192434</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.2939250747457</v>
+        <v>750.7274996431303</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.4906019059338</v>
+        <v>1027.17848477154</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.3497444609161</v>
+        <v>929.1460118390017</v>
       </c>
       <c r="AD4" t="n">
-        <v>690293.9250747458</v>
+        <v>750727.4996431302</v>
       </c>
       <c r="AE4" t="n">
-        <v>944490.6019059338</v>
+        <v>1027178.48477154</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202854855331446e-06</v>
+        <v>3.175777454620251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.79583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>854349.7444609161</v>
+        <v>929146.0118390018</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>592.7262381778647</v>
+        <v>653.0744718916775</v>
       </c>
       <c r="AB5" t="n">
-        <v>810.9941883110632</v>
+        <v>893.5653040544722</v>
       </c>
       <c r="AC5" t="n">
-        <v>733.5940412161467</v>
+        <v>808.2846855622936</v>
       </c>
       <c r="AD5" t="n">
-        <v>592726.2381778647</v>
+        <v>653074.4718916775</v>
       </c>
       <c r="AE5" t="n">
-        <v>810994.1883110632</v>
+        <v>893565.3040544722</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.355304082074582e-06</v>
+        <v>3.39555807979099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>733594.0412161467</v>
+        <v>808284.6855622936</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>582.5752153026526</v>
+        <v>642.9234490164656</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.1051109816752</v>
+        <v>879.6762267250842</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.0305179336331</v>
+        <v>795.7211622797801</v>
       </c>
       <c r="AD6" t="n">
-        <v>582575.2153026527</v>
+        <v>642923.4490164656</v>
       </c>
       <c r="AE6" t="n">
-        <v>797105.1109816752</v>
+        <v>879676.2267250842</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.375873786352843e-06</v>
+        <v>3.42521269045996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>721030.5179336331</v>
+        <v>795721.16227978</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>584.8185717307307</v>
+        <v>645.1668054445435</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.1745702164724</v>
+        <v>882.7456859598813</v>
       </c>
       <c r="AC7" t="n">
-        <v>723.8070322870742</v>
+        <v>798.4976766332211</v>
       </c>
       <c r="AD7" t="n">
-        <v>584818.5717307307</v>
+        <v>645166.8054445435</v>
       </c>
       <c r="AE7" t="n">
-        <v>800174.5702164724</v>
+        <v>882745.6859598813</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.376019670780348e-06</v>
+        <v>3.425423006847684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>723807.0322870743</v>
+        <v>798497.6766332211</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1673.836214135391</v>
+        <v>1783.092038641287</v>
       </c>
       <c r="AB2" t="n">
-        <v>2290.21655262213</v>
+        <v>2439.705191737894</v>
       </c>
       <c r="AC2" t="n">
-        <v>2071.641499178993</v>
+        <v>2206.863152386171</v>
       </c>
       <c r="AD2" t="n">
-        <v>1673836.214135391</v>
+        <v>1783092.038641287</v>
       </c>
       <c r="AE2" t="n">
-        <v>2290216.55262213</v>
+        <v>2439705.191737894</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.318396927505436e-06</v>
+        <v>1.930083505156086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.84791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2071641.499178993</v>
+        <v>2206863.152386171</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>710.4788739509643</v>
+        <v>777.7329215364169</v>
       </c>
       <c r="AB3" t="n">
-        <v>972.1085394554723</v>
+        <v>1064.128494401065</v>
       </c>
       <c r="AC3" t="n">
-        <v>879.3318648127454</v>
+        <v>962.5695644091483</v>
       </c>
       <c r="AD3" t="n">
-        <v>710478.8739509643</v>
+        <v>777732.921536417</v>
       </c>
       <c r="AE3" t="n">
-        <v>972108.5394554723</v>
+        <v>1064128.494401065</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136962052824744e-06</v>
+        <v>3.128432055060688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>879331.8648127454</v>
+        <v>962569.5644091483</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.9986495533024</v>
+        <v>612.5032803918716</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.9513459494007</v>
+        <v>838.0540099697919</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.5637087219815</v>
+        <v>758.0713114744644</v>
       </c>
       <c r="AD4" t="n">
-        <v>561998.6495533023</v>
+        <v>612503.2803918716</v>
       </c>
       <c r="AE4" t="n">
-        <v>768951.3459494007</v>
+        <v>838054.0099697919</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396687454866509e-06</v>
+        <v>3.508660273052175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11875</v>
       </c>
       <c r="AH4" t="n">
-        <v>695563.7087219815</v>
+        <v>758071.3114744645</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>556.9997368640853</v>
+        <v>607.5043677026546</v>
       </c>
       <c r="AB5" t="n">
-        <v>762.1116130715509</v>
+        <v>831.214277091942</v>
       </c>
       <c r="AC5" t="n">
-        <v>689.3767503503682</v>
+        <v>751.8843531028513</v>
       </c>
       <c r="AD5" t="n">
-        <v>556999.7368640853</v>
+        <v>607504.3677026546</v>
       </c>
       <c r="AE5" t="n">
-        <v>762111.6130715508</v>
+        <v>831214.277091942</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.411929910186798e-06</v>
+        <v>3.53097465423587e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.03541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>689376.7503503682</v>
+        <v>751884.3531028513</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.3099224218568</v>
+        <v>587.6810330700868</v>
       </c>
       <c r="AB2" t="n">
-        <v>729.6981638308414</v>
+        <v>804.0911161038608</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.0567952126304</v>
+        <v>727.3497885318772</v>
       </c>
       <c r="AD2" t="n">
-        <v>533309.9224218568</v>
+        <v>587681.0330700867</v>
       </c>
       <c r="AE2" t="n">
-        <v>729698.1638308414</v>
+        <v>804091.1161038608</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321893691940959e-06</v>
+        <v>3.592256139539555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>660056.7952126304</v>
+        <v>727349.7885318771</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.4009186503827</v>
+        <v>569.4538876697299</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.248321846135</v>
+        <v>779.1519316421899</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.9902363927786</v>
+        <v>704.7907648328628</v>
       </c>
       <c r="AD3" t="n">
-        <v>507400.9186503827</v>
+        <v>569453.8876697299</v>
       </c>
       <c r="AE3" t="n">
-        <v>694248.321846135</v>
+        <v>779151.9316421899</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375613164506172e-06</v>
+        <v>3.675366794349036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>627990.2363927786</v>
+        <v>704790.7648328628</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.400349365965</v>
+        <v>862.4229467710741</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.460628004927</v>
+        <v>1180.005123187344</v>
       </c>
       <c r="AC2" t="n">
-        <v>978.24754350766</v>
+        <v>1067.387090377935</v>
       </c>
       <c r="AD2" t="n">
-        <v>790400.349365965</v>
+        <v>862422.9467710741</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081460.628004927</v>
+        <v>1180005.123187344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.948374289229169e-06</v>
+        <v>2.944566311574504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>978247.54350766</v>
+        <v>1067387.090377935</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.4604445824999</v>
+        <v>568.610703164712</v>
       </c>
       <c r="AB3" t="n">
-        <v>701.1709884369884</v>
+        <v>777.9982494037495</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.2522134002246</v>
+        <v>703.7471884080558</v>
       </c>
       <c r="AD3" t="n">
-        <v>512460.4445824999</v>
+        <v>568610.7031647121</v>
       </c>
       <c r="AE3" t="n">
-        <v>701170.9884369884</v>
+        <v>777998.2494037495</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426365567230074e-06</v>
+        <v>3.666951646983925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>634252.2134002246</v>
+        <v>703747.1884080558</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.6383472134123</v>
+        <v>570.7886057956244</v>
       </c>
       <c r="AB4" t="n">
-        <v>704.1508908988857</v>
+        <v>780.9781518656466</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.9477181534777</v>
+        <v>706.442693161309</v>
       </c>
       <c r="AD4" t="n">
-        <v>514638.3472134123</v>
+        <v>570788.6057956244</v>
       </c>
       <c r="AE4" t="n">
-        <v>704150.8908988857</v>
+        <v>780978.1518656466</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428459900433314e-06</v>
+        <v>3.670116800121884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.82083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>636947.7181534776</v>
+        <v>706442.693161309</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.0029273725646</v>
+        <v>581.3881691236733</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.8591902580974</v>
+        <v>795.480942030814</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.8249096440212</v>
+        <v>719.5613573879066</v>
       </c>
       <c r="AD2" t="n">
-        <v>521002.9273725646</v>
+        <v>581388.1691236732</v>
       </c>
       <c r="AE2" t="n">
-        <v>712859.1902580975</v>
+        <v>795480.942030814</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>3.593497083072816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>644824.9096440212</v>
+        <v>719561.3573879066</v>
       </c>
     </row>
     <row r="3">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.2426317084227</v>
+        <v>585.6278734595313</v>
       </c>
       <c r="AB3" t="n">
-        <v>718.6601407729731</v>
+        <v>801.2818925456896</v>
       </c>
       <c r="AC3" t="n">
-        <v>650.0722255834423</v>
+        <v>724.8086733273278</v>
       </c>
       <c r="AD3" t="n">
-        <v>525242.6317084227</v>
+        <v>585627.8734595313</v>
       </c>
       <c r="AE3" t="n">
-        <v>718660.1407729732</v>
+        <v>801281.8925456896</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>3.593497083072816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>650072.2255834424</v>
+        <v>724808.6733273278</v>
       </c>
     </row>
   </sheetData>
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1891.605524665331</v>
+        <v>2001.599306946463</v>
       </c>
       <c r="AB2" t="n">
-        <v>2588.178130593125</v>
+        <v>2738.676476093366</v>
       </c>
       <c r="AC2" t="n">
-        <v>2341.166042340138</v>
+        <v>2477.30103697159</v>
       </c>
       <c r="AD2" t="n">
-        <v>1891605.524665331</v>
+        <v>2001599.306946463</v>
       </c>
       <c r="AE2" t="n">
-        <v>2588178.130593125</v>
+        <v>2738676.476093366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235512987421378e-06</v>
+        <v>1.801237444129984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2341166.042340138</v>
+        <v>2477301.03697159</v>
       </c>
     </row>
     <row r="3">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>768.9219210921505</v>
+        <v>828.2412891677836</v>
       </c>
       <c r="AB3" t="n">
-        <v>1052.072894879314</v>
+        <v>1133.236271266217</v>
       </c>
       <c r="AC3" t="n">
-        <v>951.6645343856131</v>
+        <v>1025.081792043665</v>
       </c>
       <c r="AD3" t="n">
-        <v>768921.9210921505</v>
+        <v>828241.2891677837</v>
       </c>
       <c r="AE3" t="n">
-        <v>1052072.894879314</v>
+        <v>1133236.271266217</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066766005710691e-06</v>
+        <v>3.013109822107766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>951664.5343856132</v>
+        <v>1025081.792043665</v>
       </c>
     </row>
     <row r="4">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.4206433501107</v>
+        <v>634.2658287733037</v>
       </c>
       <c r="AB4" t="n">
-        <v>798.2618629338606</v>
+        <v>867.8304887611417</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.0768711030134</v>
+        <v>785.0059649215184</v>
       </c>
       <c r="AD4" t="n">
-        <v>583420.6433501107</v>
+        <v>634265.8287733038</v>
       </c>
       <c r="AE4" t="n">
-        <v>798261.8629338606</v>
+        <v>867830.4887611418</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.364389882356199e-06</v>
+        <v>3.447011591121041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>722076.8711030134</v>
+        <v>785005.9649215183</v>
       </c>
     </row>
     <row r="5">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>557.9805079607692</v>
+        <v>617.2144456732799</v>
       </c>
       <c r="AB5" t="n">
-        <v>763.4535473546006</v>
+        <v>844.5000341497579</v>
       </c>
       <c r="AC5" t="n">
-        <v>690.5906123088604</v>
+        <v>763.9021361537466</v>
       </c>
       <c r="AD5" t="n">
-        <v>557980.5079607691</v>
+        <v>617214.4456732799</v>
       </c>
       <c r="AE5" t="n">
-        <v>763453.5473546006</v>
+        <v>844500.0341497579</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401181577660116e-06</v>
+        <v>3.500649699250321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.97708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>690590.6123088604</v>
+        <v>763902.1361537466</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.2521721801132</v>
+        <v>597.7351575370149</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.4603679867591</v>
+        <v>817.8476127561785</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.1736240947205</v>
+        <v>739.7933844510619</v>
       </c>
       <c r="AD2" t="n">
-        <v>538252.1721801133</v>
+        <v>597735.1575370148</v>
       </c>
       <c r="AE2" t="n">
-        <v>736460.3679867592</v>
+        <v>817847.6127561785</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.173433874295817e-06</v>
+        <v>3.482351601192196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>666173.6240947205</v>
+        <v>739793.384451062</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1166.404044188677</v>
+        <v>1248.650921062386</v>
       </c>
       <c r="AB2" t="n">
-        <v>1595.925471373647</v>
+        <v>1708.459276788377</v>
       </c>
       <c r="AC2" t="n">
-        <v>1443.612584281212</v>
+        <v>1545.406321249348</v>
       </c>
       <c r="AD2" t="n">
-        <v>1166404.044188677</v>
+        <v>1248650.921062386</v>
       </c>
       <c r="AE2" t="n">
-        <v>1595925.471373647</v>
+        <v>1708459.276788377</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601076675652204e-06</v>
+        <v>2.377347809924845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1443612.584281212</v>
+        <v>1545406.321249348</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.6186706285189</v>
+        <v>622.2511603823292</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.5361743716842</v>
+        <v>851.3914894188499</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.8064061509804</v>
+        <v>770.1358806041746</v>
       </c>
       <c r="AD3" t="n">
-        <v>564618.6706285189</v>
+        <v>622251.1603823293</v>
       </c>
       <c r="AE3" t="n">
-        <v>772536.1743716842</v>
+        <v>851391.4894188499</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357844683848695e-06</v>
+        <v>3.501029638700627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7375</v>
       </c>
       <c r="AH3" t="n">
-        <v>698806.4061509804</v>
+        <v>770135.8806041747</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.4698719341316</v>
+        <v>589.9317694873498</v>
       </c>
       <c r="AB4" t="n">
-        <v>728.5487696931241</v>
+        <v>807.1706729654429</v>
       </c>
       <c r="AC4" t="n">
-        <v>659.0170976382319</v>
+        <v>730.135436808775</v>
       </c>
       <c r="AD4" t="n">
-        <v>532469.8719341316</v>
+        <v>589931.7694873498</v>
       </c>
       <c r="AE4" t="n">
-        <v>728548.7696931241</v>
+        <v>807170.6729654429</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429680890913988e-06</v>
+        <v>3.607695142069111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>659017.0976382319</v>
+        <v>730135.4368087751</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1480.375362386552</v>
+        <v>1580.592094991741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2025.514880368952</v>
+        <v>2162.635835169578</v>
       </c>
       <c r="AC2" t="n">
-        <v>1832.202583014528</v>
+        <v>1956.236906339451</v>
       </c>
       <c r="AD2" t="n">
-        <v>1480375.362386552</v>
+        <v>1580592.094991741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2025514.880368952</v>
+        <v>2162635.835169578</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409836304939231e-06</v>
+        <v>2.073083191419315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.51458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1832202.583014528</v>
+        <v>1956236.906339451</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.368183261135</v>
+        <v>720.7924747666414</v>
       </c>
       <c r="AB3" t="n">
-        <v>906.2813699597725</v>
+        <v>986.2200630954369</v>
       </c>
       <c r="AC3" t="n">
-        <v>819.7871479847028</v>
+        <v>892.0966044421597</v>
       </c>
       <c r="AD3" t="n">
-        <v>662368.183261135</v>
+        <v>720792.4747666414</v>
       </c>
       <c r="AE3" t="n">
-        <v>906281.3699597726</v>
+        <v>986220.0630954369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.208753700995135e-06</v>
+        <v>3.247845267905472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>819787.1479847027</v>
+        <v>892096.6044421596</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.7038819871128</v>
+        <v>600.8550082255439</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.4973466753629</v>
+        <v>822.1163301063228</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.5846174488336</v>
+        <v>743.6547014084907</v>
       </c>
       <c r="AD4" t="n">
-        <v>550703.8819871128</v>
+        <v>600855.0082255439</v>
       </c>
       <c r="AE4" t="n">
-        <v>753497.3466753629</v>
+        <v>822116.3301063229</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413358213371771e-06</v>
+        <v>3.548704434328223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>681584.6174488335</v>
+        <v>743654.7014084908</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>551.5467939391574</v>
+        <v>601.6979201775887</v>
       </c>
       <c r="AB5" t="n">
-        <v>754.6506559948011</v>
+        <v>823.2696394257611</v>
       </c>
       <c r="AC5" t="n">
-        <v>682.6278565455043</v>
+        <v>744.6979405051618</v>
       </c>
       <c r="AD5" t="n">
-        <v>551546.7939391574</v>
+        <v>601697.9201775887</v>
       </c>
       <c r="AE5" t="n">
-        <v>754650.6559948011</v>
+        <v>823269.6394257611</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416405190473433e-06</v>
+        <v>3.553184838891481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>682627.8565455043</v>
+        <v>744697.9405051618</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2435.488721250686</v>
+        <v>2564.133308521051</v>
       </c>
       <c r="AB2" t="n">
-        <v>3332.343114594588</v>
+        <v>3508.360314296555</v>
       </c>
       <c r="AC2" t="n">
-        <v>3014.308964710491</v>
+        <v>3173.527329914586</v>
       </c>
       <c r="AD2" t="n">
-        <v>2435488.721250685</v>
+        <v>2564133.308521051</v>
       </c>
       <c r="AE2" t="n">
-        <v>3332343.114594589</v>
+        <v>3508360.314296555</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074793075514268e-06</v>
+        <v>1.554981072008439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.50416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3014308.964710491</v>
+        <v>3173527.329914586</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.3602100070718</v>
+        <v>942.0161716737053</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.969969264835</v>
+        <v>1288.908084904384</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.923712549084</v>
+        <v>1165.896506274968</v>
       </c>
       <c r="AD3" t="n">
-        <v>873360.2100070718</v>
+        <v>942016.1716737053</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194969.969264835</v>
+        <v>1288908.084904384</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.936068632127631e-06</v>
+        <v>2.801050867979629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080923.712549084</v>
+        <v>1165896.506274968</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>652.4237721669998</v>
+        <v>712.497738625304</v>
       </c>
       <c r="AB4" t="n">
-        <v>892.6749879843222</v>
+        <v>974.8708391689272</v>
       </c>
       <c r="AC4" t="n">
-        <v>807.4793400083124</v>
+        <v>881.8305345184601</v>
       </c>
       <c r="AD4" t="n">
-        <v>652423.7721669998</v>
+        <v>712497.738625304</v>
       </c>
       <c r="AE4" t="n">
-        <v>892674.9879843222</v>
+        <v>974870.8391689272</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.258844771237471e-06</v>
+        <v>3.268034511851365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>807479.3400083124</v>
+        <v>881830.5345184602</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.6634580380905</v>
+        <v>635.6520836418232</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.6481397670914</v>
+        <v>869.7272238294985</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.4761067788265</v>
+        <v>786.7216782570357</v>
       </c>
       <c r="AD5" t="n">
-        <v>575663.4580380905</v>
+        <v>635652.0836418231</v>
       </c>
       <c r="AE5" t="n">
-        <v>787648.1397670914</v>
+        <v>869727.2238294985</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380455644605962e-06</v>
+        <v>3.443977779952471e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.86875</v>
       </c>
       <c r="AH5" t="n">
-        <v>712476.1067788266</v>
+        <v>786721.6782570357</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>576.675942058637</v>
+        <v>636.6645676623696</v>
       </c>
       <c r="AB6" t="n">
-        <v>789.0334650716454</v>
+        <v>871.1125491340526</v>
       </c>
       <c r="AC6" t="n">
-        <v>713.7292185806303</v>
+        <v>787.9747900588394</v>
       </c>
       <c r="AD6" t="n">
-        <v>576675.942058637</v>
+        <v>636664.5676623696</v>
       </c>
       <c r="AE6" t="n">
-        <v>789033.4650716454</v>
+        <v>871112.5491340526</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.383690758528703e-06</v>
+        <v>3.448658253831823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.85208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>713729.2185806304</v>
+        <v>787974.7900588394</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.2228247149645</v>
+        <v>978.9998564677343</v>
       </c>
       <c r="AB2" t="n">
-        <v>1239.934048504414</v>
+        <v>1339.510794044595</v>
       </c>
       <c r="AC2" t="n">
-        <v>1121.596483173518</v>
+        <v>1211.669763876185</v>
       </c>
       <c r="AD2" t="n">
-        <v>906222.8247149645</v>
+        <v>978999.8564677343</v>
       </c>
       <c r="AE2" t="n">
-        <v>1239934.048504414</v>
+        <v>1339510.794044595</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822333461544564e-06</v>
+        <v>2.736570120842271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1121596.483173518</v>
+        <v>1211669.763876185</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.6438667434192</v>
+        <v>576.3145313758118</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.9996635477777</v>
+        <v>788.53896703109</v>
       </c>
       <c r="AC3" t="n">
-        <v>643.1428535530721</v>
+        <v>713.2819147390333</v>
       </c>
       <c r="AD3" t="n">
-        <v>519643.8667434192</v>
+        <v>576314.5313758118</v>
       </c>
       <c r="AE3" t="n">
-        <v>710999.6635477777</v>
+        <v>788538.9670310901</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426225021564045e-06</v>
+        <v>3.643424785069006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.66041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>643142.8535530721</v>
+        <v>713281.9147390332</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.8557117306458</v>
+        <v>576.5263763630384</v>
       </c>
       <c r="AB4" t="n">
-        <v>711.2895192052422</v>
+        <v>788.8288226885546</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.4050457934032</v>
+        <v>713.5441069793643</v>
       </c>
       <c r="AD4" t="n">
-        <v>519855.7117306458</v>
+        <v>576526.3763630383</v>
       </c>
       <c r="AE4" t="n">
-        <v>711289.5192052422</v>
+        <v>788828.8226885546</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431474869161686e-06</v>
+        <v>3.651308400432411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.63125</v>
       </c>
       <c r="AH4" t="n">
-        <v>643405.0457934033</v>
+        <v>713544.1069793643</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.3624041912809</v>
+        <v>654.2279401279244</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.1281304825101</v>
+        <v>895.1435301827323</v>
       </c>
       <c r="AC2" t="n">
-        <v>731.9060773277222</v>
+        <v>809.7122880039269</v>
       </c>
       <c r="AD2" t="n">
-        <v>591362.4041912809</v>
+        <v>654227.9401279244</v>
       </c>
       <c r="AE2" t="n">
-        <v>809128.1304825101</v>
+        <v>895143.5301827323</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223731999980423e-06</v>
+        <v>3.410641725354235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.525</v>
       </c>
       <c r="AH2" t="n">
-        <v>731906.0773277222</v>
+        <v>809712.2880039269</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.6928161787965</v>
+        <v>565.6149087773389</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.7524412727799</v>
+        <v>773.8992713578249</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.0644889829159</v>
+        <v>700.0394110738825</v>
       </c>
       <c r="AD3" t="n">
-        <v>510692.8161787965</v>
+        <v>565614.9087773389</v>
       </c>
       <c r="AE3" t="n">
-        <v>698752.4412727799</v>
+        <v>773899.2713578249</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.401047242545373e-06</v>
+        <v>3.6825984021654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>632064.4889829159</v>
+        <v>700039.4110738826</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.4848114622183</v>
+        <v>575.6602999823573</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.9408165105829</v>
+        <v>787.6438187759137</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.7576929699532</v>
+        <v>712.4721981769825</v>
       </c>
       <c r="AD2" t="n">
-        <v>514484.8114622183</v>
+        <v>575660.2999823573</v>
       </c>
       <c r="AE2" t="n">
-        <v>703940.8165105828</v>
+        <v>787643.8187759137</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.327262052948178e-06</v>
+        <v>3.636301051636802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>636757.6929699532</v>
+        <v>712472.1981769825</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.9213051744032</v>
+        <v>577.0967936945423</v>
       </c>
       <c r="AB3" t="n">
-        <v>705.9062905812241</v>
+        <v>789.6092928465549</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.5355849538525</v>
+        <v>714.2500901608819</v>
       </c>
       <c r="AD3" t="n">
-        <v>515921.3051744032</v>
+        <v>577096.7936945423</v>
       </c>
       <c r="AE3" t="n">
-        <v>705906.2905812241</v>
+        <v>789609.2928465549</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.332747644116e-06</v>
+        <v>3.644872179631232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.30833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>638535.5849538526</v>
+        <v>714250.0901608819</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.8737874063642</v>
+        <v>640.4996823473974</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.5676775709537</v>
+        <v>876.3599222394265</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.4987623782503</v>
+        <v>792.7213612397709</v>
       </c>
       <c r="AD2" t="n">
-        <v>574873.7874063641</v>
+        <v>640499.6823473974</v>
       </c>
       <c r="AE2" t="n">
-        <v>786567.6775709537</v>
+        <v>876359.9222394265</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007526043769029e-06</v>
+        <v>3.271617280098269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>711498.7623782502</v>
+        <v>792721.3612397709</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1317.404282913358</v>
+        <v>1408.502842744199</v>
       </c>
       <c r="AB2" t="n">
-        <v>1802.530659657131</v>
+        <v>1927.175728202502</v>
       </c>
       <c r="AC2" t="n">
-        <v>1630.499663367124</v>
+        <v>1743.248781510977</v>
       </c>
       <c r="AD2" t="n">
-        <v>1317404.282913358</v>
+        <v>1408502.842744199</v>
       </c>
       <c r="AE2" t="n">
-        <v>1802530.659657131</v>
+        <v>1927175.728202502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501153133491747e-06</v>
+        <v>2.217774824438789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.35625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1630499.663367124</v>
+        <v>1743248.781510977</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>612.8148474675825</v>
+        <v>670.8099655961103</v>
       </c>
       <c r="AB3" t="n">
-        <v>838.4803097881486</v>
+        <v>917.8317889756378</v>
       </c>
       <c r="AC3" t="n">
-        <v>758.4569258364728</v>
+        <v>830.2352112208087</v>
       </c>
       <c r="AD3" t="n">
-        <v>612814.8474675824</v>
+        <v>670809.9655961102</v>
       </c>
       <c r="AE3" t="n">
-        <v>838480.3097881486</v>
+        <v>917831.7889756378</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289273915548403e-06</v>
+        <v>3.382129339688428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.00208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>758456.9258364728</v>
+        <v>830235.2112208087</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.7615105876795</v>
+        <v>599.6712878616355</v>
       </c>
       <c r="AB4" t="n">
-        <v>741.261999617075</v>
+        <v>820.4967116823665</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.5169947413714</v>
+        <v>742.189657093768</v>
       </c>
       <c r="AD4" t="n">
-        <v>541761.5105876795</v>
+        <v>599671.2878616356</v>
       </c>
       <c r="AE4" t="n">
-        <v>741261.9996170751</v>
+        <v>820496.7116823664</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.42129414807566e-06</v>
+        <v>3.577173497065271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>670516.9947413714</v>
+        <v>742189.657093768</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>543.8466904675801</v>
+        <v>601.7564677415362</v>
       </c>
       <c r="AB5" t="n">
-        <v>744.115034720399</v>
+        <v>823.3497467856903</v>
       </c>
       <c r="AC5" t="n">
-        <v>673.0977401786938</v>
+        <v>744.7704025310906</v>
       </c>
       <c r="AD5" t="n">
-        <v>543846.6904675801</v>
+        <v>601756.4677415362</v>
       </c>
       <c r="AE5" t="n">
-        <v>744115.034720399</v>
+        <v>823349.7467856903</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421755757280301e-06</v>
+        <v>3.577855469643511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH5" t="n">
-        <v>673097.7401786938</v>
+        <v>744770.4025310905</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2141.431005580245</v>
+        <v>2260.751424495569</v>
       </c>
       <c r="AB2" t="n">
-        <v>2930.000375103269</v>
+        <v>3093.259836308757</v>
       </c>
       <c r="AC2" t="n">
-        <v>2650.365251584767</v>
+        <v>2798.04345894878</v>
       </c>
       <c r="AD2" t="n">
-        <v>2141431.005580245</v>
+        <v>2260751.424495569</v>
       </c>
       <c r="AE2" t="n">
-        <v>2930000.375103269</v>
+        <v>3093259.836308757</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152828584485431e-06</v>
+        <v>1.674101950720968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2650365.251584766</v>
+        <v>2798043.458948779</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>821.8042810069358</v>
+        <v>889.8655515319965</v>
       </c>
       <c r="AB3" t="n">
-        <v>1124.428872719787</v>
+        <v>1217.553305703515</v>
       </c>
       <c r="AC3" t="n">
-        <v>1017.114959253245</v>
+        <v>1101.351727053968</v>
       </c>
       <c r="AD3" t="n">
-        <v>821804.2810069358</v>
+        <v>889865.5515319965</v>
       </c>
       <c r="AE3" t="n">
-        <v>1124428.872719787</v>
+        <v>1217553.305703514</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.99843391147198e-06</v>
+        <v>2.902063806021507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.45625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1017114.959253245</v>
+        <v>1101351.727053968</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.6945546601743</v>
+        <v>676.2268423445287</v>
       </c>
       <c r="AB4" t="n">
-        <v>843.7886963296543</v>
+        <v>925.2433987185599</v>
       </c>
       <c r="AC4" t="n">
-        <v>763.2586874168245</v>
+        <v>836.9394673321258</v>
       </c>
       <c r="AD4" t="n">
-        <v>616694.5546601743</v>
+        <v>676226.8423445286</v>
       </c>
       <c r="AE4" t="n">
-        <v>843788.6963296543</v>
+        <v>925243.3987185599</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.313960500254616e-06</v>
+        <v>3.360261741858705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.35</v>
       </c>
       <c r="AH4" t="n">
-        <v>763258.6874168245</v>
+        <v>836939.4673321258</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>565.2553204299853</v>
+        <v>624.8728594603602</v>
       </c>
       <c r="AB5" t="n">
-        <v>773.4072667170576</v>
+        <v>854.9786137586124</v>
       </c>
       <c r="AC5" t="n">
-        <v>699.594362665497</v>
+        <v>773.3806548315106</v>
       </c>
       <c r="AD5" t="n">
-        <v>565255.3204299853</v>
+        <v>624872.8594603603</v>
       </c>
       <c r="AE5" t="n">
-        <v>773407.2667170576</v>
+        <v>854978.6137586124</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>3.476318455870101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>699594.362665497</v>
+        <v>773380.6548315106</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>567.6444565292485</v>
+        <v>627.2619955596233</v>
       </c>
       <c r="AB6" t="n">
-        <v>776.6761881293152</v>
+        <v>858.24753517087</v>
       </c>
       <c r="AC6" t="n">
-        <v>702.5513028061289</v>
+        <v>776.3375949721425</v>
       </c>
       <c r="AD6" t="n">
-        <v>567644.4565292485</v>
+        <v>627261.9955596233</v>
       </c>
       <c r="AE6" t="n">
-        <v>776676.1881293152</v>
+        <v>858247.53517087</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>3.476318455870101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>702551.3028061289</v>
+        <v>776337.5949721425</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.8194903180865</v>
+        <v>743.0368657606276</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.0576476009239</v>
+        <v>1016.655820206679</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.1574089527334</v>
+        <v>919.6276156115584</v>
       </c>
       <c r="AD2" t="n">
-        <v>657819.4903180866</v>
+        <v>743036.8657606277</v>
       </c>
       <c r="AE2" t="n">
-        <v>900057.6476009239</v>
+        <v>1016655.820206679</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708611269100411e-06</v>
+        <v>2.848153188168166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>814157.4089527334</v>
+        <v>919627.6156115584</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.0670247476929</v>
+        <v>747.5221012081993</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.9706821670059</v>
+        <v>1022.792717220669</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.6429539040888</v>
+        <v>925.1788157877223</v>
       </c>
       <c r="AD2" t="n">
-        <v>684067.024747693</v>
+        <v>747522.1012081993</v>
       </c>
       <c r="AE2" t="n">
-        <v>935970.6821670058</v>
+        <v>1022792.717220669</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085664338807144e-06</v>
+        <v>3.174186367919701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>846642.9539040888</v>
+        <v>925178.8157877224</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.3759287370144</v>
+        <v>569.888464221705</v>
       </c>
       <c r="AB3" t="n">
-        <v>703.791838362392</v>
+        <v>779.7465384527666</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.6229330871336</v>
+        <v>705.328623203974</v>
       </c>
       <c r="AD3" t="n">
-        <v>514375.9287370145</v>
+        <v>569888.464221705</v>
       </c>
       <c r="AE3" t="n">
-        <v>703791.838362392</v>
+        <v>779746.5384527666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.41846921842576e-06</v>
+        <v>3.680684317952613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>636622.9330871336</v>
+        <v>705328.623203974</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1029.353591728019</v>
+        <v>1110.845211057738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1408.406996077734</v>
+        <v>1519.907424801167</v>
       </c>
       <c r="AC2" t="n">
-        <v>1273.990609083708</v>
+        <v>1374.849593381612</v>
       </c>
       <c r="AD2" t="n">
-        <v>1029353.591728019</v>
+        <v>1110845.211057738</v>
       </c>
       <c r="AE2" t="n">
-        <v>1408406.996077734</v>
+        <v>1519907.424801167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708381333663929e-06</v>
+        <v>2.550460762493341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1273990.609083708</v>
+        <v>1374849.593381612</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.5734246125651</v>
+        <v>591.7369726837834</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.4269432699513</v>
+        <v>809.6406316187479</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.6205823684287</v>
+        <v>732.369666074817</v>
       </c>
       <c r="AD3" t="n">
-        <v>534573.4246125651</v>
+        <v>591736.9726837834</v>
       </c>
       <c r="AE3" t="n">
-        <v>731426.9432699513</v>
+        <v>809640.6316187478</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406921575286315e-06</v>
+        <v>3.593318959415658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>661620.5823684287</v>
+        <v>732369.6660748171</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.9327775704588</v>
+        <v>583.925733441085</v>
       </c>
       <c r="AB4" t="n">
-        <v>720.972672905384</v>
+        <v>798.9529494793335</v>
       </c>
       <c r="AC4" t="n">
-        <v>652.1640528947951</v>
+        <v>722.7020013185326</v>
       </c>
       <c r="AD4" t="n">
-        <v>526932.7775704588</v>
+        <v>583925.733441085</v>
       </c>
       <c r="AE4" t="n">
-        <v>720972.672905384</v>
+        <v>798952.9494793335</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.430504973045342e-06</v>
+        <v>3.62852686613147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>652164.0528947951</v>
+        <v>722702.0013185325</v>
       </c>
     </row>
   </sheetData>
